--- a/BOM/CoVen19_BOM_v0.5_r1.xlsx
+++ b/BOM/CoVen19_BOM_v0.5_r1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CoVen19\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\USGDEV\CoVen19\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8030B765-7A7F-4DEE-94F4-3746B7375026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB426DE-F4AB-41E4-8356-D57B8FE47E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -159,9 +159,6 @@
     <t>M3 Screw 8mm screw for nema 17 motor mounting</t>
   </si>
   <si>
-    <t>90 Degree Bracket Joint</t>
-  </si>
-  <si>
     <t>Brackets for securing enclosure parts</t>
   </si>
   <si>
@@ -178,6 +175,15 @@
   </si>
   <si>
     <t>Laser cutting as per DXF file provided with this project</t>
+  </si>
+  <si>
+    <t>Screw for Braket Joints</t>
+  </si>
+  <si>
+    <t>90 Degree Bracket Joints</t>
+  </si>
+  <si>
+    <t>Generic nut bots compitibal with Bracket</t>
   </si>
 </sst>
 </file>
@@ -526,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,30 +759,45 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D27" s="3">
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="3">
+        <v>60</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
